--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1772432.358709971</v>
+        <v>1848915.628841034</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577129</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6563215.960200458</v>
+        <v>6940513.450695514</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +670,13 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>150.2320812524424</v>
+        <v>65.0464929907391</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>91.01776135931932</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.28391178232665</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>333.4191839581966</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -905,10 +907,10 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>233.3184164456366</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>158.0724857897092</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1111,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>46.1619143009821</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1148,10 +1150,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>8.785986429596822</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>49.49512077555119</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>128.3652730541108</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>110.8471439350443</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1388,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>343.032728188843</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>51.69511841098231</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>160.8277938782463</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1610,10 +1612,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1622,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1673,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>380.7760486857153</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1774,13 +1776,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>60.64582998875628</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1850,7 +1852,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80.96206012172709</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>51.69511841098215</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>69.70658994605395</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>154.8833258811978</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>165.5938898061686</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2485,7 +2487,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2539,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>9.690509800664087</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>75.30362264056416</v>
       </c>
       <c r="C28" t="n">
-        <v>2.669536049219641</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2849,7 +2851,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2956,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>151.4276247662822</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C34" t="n">
-        <v>23.16237202978864</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3272,19 +3274,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396357</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>146.7855775533106</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>69.0115522587657</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3484,7 +3486,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3661,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>85.20539141529345</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.44894733164843</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3743,19 +3745,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>95.93145687034509</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3803,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3901,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>123.9614865446926</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>17.97832783223334</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -4028,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>11.78814461228419</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4043,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>158.0094596803505</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>59.93143566197608</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>550.8776849122382</v>
+        <v>168.7534004685684</v>
       </c>
       <c r="C2" t="n">
-        <v>528.0173589659424</v>
+        <v>145.8930745222726</v>
       </c>
       <c r="D2" t="n">
-        <v>508.7651421913468</v>
+        <v>126.640857747677</v>
       </c>
       <c r="E2" t="n">
-        <v>486.8286063796084</v>
+        <v>104.7043219359386</v>
       </c>
       <c r="F2" t="n">
-        <v>335.0790293569393</v>
+        <v>39.00079366246472</v>
       </c>
       <c r="G2" t="n">
-        <v>334.7803709867919</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="K2" t="n">
-        <v>493.6978991635576</v>
+        <v>880.2445183516409</v>
       </c>
       <c r="L2" t="n">
-        <v>493.6978991635576</v>
+        <v>880.2445183516409</v>
       </c>
       <c r="M2" t="n">
-        <v>493.6978991635576</v>
+        <v>882.5260259873571</v>
       </c>
       <c r="N2" t="n">
-        <v>950.4838058662885</v>
+        <v>882.5260259873571</v>
       </c>
       <c r="O2" t="n">
-        <v>1407.269712569019</v>
+        <v>1361.464950229785</v>
       </c>
       <c r="P2" t="n">
-        <v>1845.599623041337</v>
+        <v>1361.464950229785</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1817.550429733968</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489011</v>
       </c>
       <c r="T2" t="n">
-        <v>1741.232328914477</v>
+        <v>1609.813899533644</v>
       </c>
       <c r="U2" t="n">
-        <v>1741.232328914477</v>
+        <v>1351.458990130056</v>
       </c>
       <c r="V2" t="n">
-        <v>1383.742914040727</v>
+        <v>993.9695752563059</v>
       </c>
       <c r="W2" t="n">
-        <v>1383.742914040727</v>
+        <v>597.5782255566528</v>
       </c>
       <c r="X2" t="n">
-        <v>972.0229152084739</v>
+        <v>185.8582267244</v>
       </c>
       <c r="Y2" t="n">
-        <v>566.6856451633643</v>
+        <v>184.5613607196944</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>46.14877825422926</v>
       </c>
       <c r="J3" t="n">
-        <v>36.9119924608267</v>
+        <v>317.8462675338203</v>
       </c>
       <c r="K3" t="n">
-        <v>36.9119924608267</v>
+        <v>317.8462675338203</v>
       </c>
       <c r="L3" t="n">
-        <v>475.2419029331441</v>
+        <v>796.7851917762482</v>
       </c>
       <c r="M3" t="n">
-        <v>932.027809635875</v>
+        <v>1275.724116018676</v>
       </c>
       <c r="N3" t="n">
-        <v>1388.813716338606</v>
+        <v>1275.724116018676</v>
       </c>
       <c r="O3" t="n">
-        <v>1845.599623041337</v>
+        <v>1754.663040261104</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1754.663040261104</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6310735731515</v>
+        <v>955.6750519694078</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6310735731515</v>
+        <v>783.7024888483238</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3143006999222</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="E4" t="n">
-        <v>295.1060948527758</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>203.1689621665946</v>
+        <v>448.5239417496549</v>
       </c>
       <c r="G4" t="n">
-        <v>36.91199246082674</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="K4" t="n">
-        <v>303.8948463526241</v>
+        <v>38.71266663273713</v>
       </c>
       <c r="L4" t="n">
-        <v>303.8948463526241</v>
+        <v>393.4019879271579</v>
       </c>
       <c r="M4" t="n">
-        <v>695.080641322875</v>
+        <v>784.5877828974087</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1890.375540593318</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1890.375540593318</v>
       </c>
       <c r="T4" t="n">
-        <v>1845.599623041337</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="U4" t="n">
-        <v>1565.415174541641</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="V4" t="n">
-        <v>1283.70370714967</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="W4" t="n">
-        <v>1283.70370714967</v>
+        <v>1372.183788991731</v>
       </c>
       <c r="X4" t="n">
-        <v>1041.139810595475</v>
+        <v>1372.183788991731</v>
       </c>
       <c r="Y4" t="n">
-        <v>814.7970422852172</v>
+        <v>1145.841020681474</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>930.4243152146078</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C5" t="n">
-        <v>907.563989268312</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>484.2713684533122</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>462.3348326415738</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>441.2510548713781</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>399.5154512777223</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>814.4714747539724</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>814.4714747539724</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>1271.257381456703</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>1728.043288159434</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1587.244713637749</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1587.244713637749</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>1587.244713637749</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X5" t="n">
-        <v>1351.569545510843</v>
+        <v>1276.094468310963</v>
       </c>
       <c r="Y5" t="n">
-        <v>1350.272679506138</v>
+        <v>1274.797602306257</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>308.6094817404178</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>393.2225928484409</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L6" t="n">
-        <v>393.2225928484409</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>393.2225928484409</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>850.0084995511718</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>850.0084995511718</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253903</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>634.468482217121</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="C7" t="n">
-        <v>634.468482217121</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="D7" t="n">
-        <v>634.468482217121</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E7" t="n">
-        <v>474.7993046517582</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F7" t="n">
-        <v>302.9375304263186</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>136.6805607205508</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>239.8047369801043</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>594.4940582745251</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>985.6798532447758</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1363.171364120812</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1718.599492800575</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1385.086614473545</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V7" t="n">
-        <v>1103.375147081574</v>
+        <v>1717.770047630966</v>
       </c>
       <c r="W7" t="n">
-        <v>1103.375147081574</v>
+        <v>1442.917643803479</v>
       </c>
       <c r="X7" t="n">
-        <v>860.811250527379</v>
+        <v>1200.353747249284</v>
       </c>
       <c r="Y7" t="n">
-        <v>634.468482217121</v>
+        <v>974.0109789390265</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429.0866194270343</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C8" t="n">
-        <v>406.2262934807385</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D8" t="n">
-        <v>386.9740767061429</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
-        <v>365.0375408944045</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>343.9537631242088</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>343.6551047540614</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>45.78672622809626</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>357.6855680512415</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>357.6855680512415</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>814.4714747539724</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1271.257381456703</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1728.043288159434</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1520.30675795911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1261.951848555523</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="V8" t="n">
-        <v>1261.951848555523</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="W8" t="n">
-        <v>1261.951848555523</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="X8" t="n">
-        <v>850.23184972327</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y8" t="n">
-        <v>848.9349837185644</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.689621525072</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980092</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809133</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851735</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082694</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>308.6094817404178</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>475.2419029331441</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>932.027809635875</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N9" t="n">
-        <v>1388.813716338606</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O9" t="n">
-        <v>1845.599623041337</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>332.7820902818225</v>
+        <v>738.2594066832694</v>
       </c>
       <c r="C10" t="n">
-        <v>332.7820902818225</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="D10" t="n">
-        <v>203.1201983079732</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="E10" t="n">
-        <v>36.91199246082674</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="F10" t="n">
-        <v>36.91199246082674</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>320.9309218908219</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>712.1167168610727</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1602.260275267237</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U10" t="n">
-        <v>1322.075826767541</v>
+        <v>1727.553143168988</v>
       </c>
       <c r="V10" t="n">
-        <v>1040.36435937557</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="W10" t="n">
-        <v>765.5119555480831</v>
+        <v>1170.98927194953</v>
       </c>
       <c r="X10" t="n">
-        <v>522.9480589938881</v>
+        <v>928.425375395335</v>
       </c>
       <c r="Y10" t="n">
-        <v>522.9480589938881</v>
+        <v>928.425375395335</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2475.986163163958</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>2049.085433177258</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
-        <v>1625.792812362258</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1199.815872510116</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>774.6916906995161</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G11" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H11" t="n">
-        <v>72.48424976299951</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>435.087708579895</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>435.087708579895</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>1332.080299397014</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>2229.072890214133</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O11" t="n">
-        <v>2342.291394605962</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P11" t="n">
-        <v>3050.57067376389</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268073</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3624.212488149976</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3624.212488149976</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3624.212488149976</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3227.821138450323</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2881.323433209067</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2475.986163163958</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>72.48424976299951</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>72.48424976299951</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M12" t="n">
-        <v>902.1599794416873</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="N12" t="n">
-        <v>1799.152570258806</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="O12" t="n">
-        <v>1799.152570258806</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="P12" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1667.878526286512</v>
+        <v>878.3707945649905</v>
       </c>
       <c r="C13" t="n">
-        <v>1615.661234962287</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="D13" t="n">
-        <v>1615.661234962287</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E13" t="n">
-        <v>1615.661234962287</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F13" t="n">
-        <v>1443.799460736848</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G13" t="n">
-        <v>1443.799460736848</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>1443.799460736848</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>1443.799460736848</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>1501.290788961006</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>1727.818390166843</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>2082.507711461264</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>2473.693506431514</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>2851.18501730755</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>3206.613145987313</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>3497.212357909214</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>3624.212488149976</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>3577.173874837149</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>3407.038827356284</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>3163.699479582184</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>2883.515031082488</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>2601.803563690517</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W13" t="n">
-        <v>2326.95115986303</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X13" t="n">
-        <v>2084.387263308835</v>
+        <v>1104.713562875248</v>
       </c>
       <c r="Y13" t="n">
-        <v>1858.044494998577</v>
+        <v>878.3707945649905</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1328.848223970851</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>901.9474939841507</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
-        <v>901.9474939841507</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>901.9474939841507</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>476.8233121735509</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G14" t="n">
-        <v>72.48424976299951</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H14" t="n">
-        <v>72.48424976299951</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>72.48424976299951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>72.48424976299951</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>600.1541536380309</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M14" t="n">
-        <v>600.1541536380309</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N14" t="n">
-        <v>1497.14674445515</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>2342.291394605962</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>3050.57067376389</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268073</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3519.845194023116</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3298.919623067749</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3298.919623067749</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2941.430208193999</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2545.038858494346</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2133.318859662093</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>1748.696588262381</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>344.1817390425906</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M15" t="n">
-        <v>902.1599794416873</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N15" t="n">
-        <v>1799.152570258806</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O15" t="n">
-        <v>1799.152570258806</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1155.665372287236</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="C16" t="n">
-        <v>983.6928091661523</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="D16" t="n">
-        <v>820.376036292923</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="E16" t="n">
-        <v>654.1678304457765</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F16" t="n">
-        <v>482.306056220337</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G16" t="n">
-        <v>316.0490865145691</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
-        <v>172.2528180227235</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2252.897277176128</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>2252.897277176128</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>2252.897277176128</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V16" t="n">
-        <v>2089.590409691242</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W16" t="n">
-        <v>1814.738005863755</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X16" t="n">
-        <v>1572.17410930956</v>
+        <v>924.1959984019542</v>
       </c>
       <c r="Y16" t="n">
-        <v>1345.831340999302</v>
+        <v>697.8532300916962</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>786.1869982294937</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1715.81204584877</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2720.098147267829</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5549,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5604,10 +5606,10 @@
         <v>939.1015214887346</v>
       </c>
       <c r="N18" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.582799500206</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>434.7678889587429</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C19" t="n">
-        <v>434.7678889587429</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D19" t="n">
-        <v>434.7678889587429</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="E19" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5732,16 +5734,16 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5756,31 +5758,31 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5792,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2126.267936898555</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2126.267936898555</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>2126.267936898555</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1844.556469506584</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6066,25 +6068,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="N24" t="n">
-        <v>1021.509065974867</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>919.4582979645735</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C25" t="n">
-        <v>747.4857348434895</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D25" t="n">
-        <v>584.1689619702602</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E25" t="n">
-        <v>417.9607561231137</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F25" t="n">
         <v>246.0989818976742</v>
@@ -6172,25 +6174,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1712.153331232334</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1430.441863840363</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1155.589460012876</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1145.801066274832</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>919.4582979645735</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>188.235025135897</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>903.7433331113961</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>1833.368380730673</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M26" t="n">
-        <v>2837.654482149731</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N26" t="n">
-        <v>3813.905540636432</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O26" t="n">
-        <v>4659.050190787244</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6303,25 +6305,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>109.7493563677404</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3519.102724620894</v>
+        <v>440.483482374059</v>
       </c>
       <c r="C28" t="n">
-        <v>3516.406223561076</v>
+        <v>268.510919252975</v>
       </c>
       <c r="D28" t="n">
-        <v>3516.406223561076</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>3516.406223561076</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>5068.0970569786</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>4824.7577092045</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>4544.573260704805</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.861793312833</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>3988.009389485347</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>3745.445492931152</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>3519.102724620894</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,25 +6451,25 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>292.0244587153436</v>
+        <v>366.6855125151251</v>
       </c>
       <c r="K29" t="n">
-        <v>1007.532766690843</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M29" t="n">
         <v>2011.818868109901</v>
@@ -6549,19 +6551,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>742.8905159778161</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>570.9179528567321</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>570.9179528567321</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>417.9607561231137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6664,7 +6666,7 @@
         <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.8905159778161</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6703,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P32" t="n">
-        <v>4573.117879057176</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6774,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>730.647150085061</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>730.647150085061</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>563.5863609803849</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C34" t="n">
-        <v>540.1900255967601</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D34" t="n">
-        <v>540.1900255967601</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E34" t="n">
-        <v>540.1900255967601</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.5863609803849</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988742</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6938,13 +6940,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M35" t="n">
-        <v>2110.0395278175</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N35" t="n">
         <v>2988.069926596602</v>
@@ -6971,16 +6973,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N36" t="n">
-        <v>223.2920388516654</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O36" t="n">
-        <v>1112.773316863137</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
         <v>1828.971033901635</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>648.2727960958064</v>
+        <v>368.279487512699</v>
       </c>
       <c r="C37" t="n">
-        <v>648.2727960958064</v>
+        <v>368.279487512699</v>
       </c>
       <c r="D37" t="n">
-        <v>578.5641574505885</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E37" t="n">
-        <v>412.355951603442</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1307.345429672325</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1064.78153311813</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>838.4387648078721</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7172,22 +7174,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7248,28 +7250,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1199.06430284061</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>795.2884438199453</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="C40" t="n">
-        <v>623.3158806988613</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="D40" t="n">
-        <v>459.999107825632</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="E40" t="n">
-        <v>373.9330558909921</v>
+        <v>441.8850405003172</v>
       </c>
       <c r="F40" t="n">
-        <v>202.0712816655526</v>
+        <v>270.0232662748776</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>103.7662965691098</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7366,16 +7368,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X40" t="n">
-        <v>985.454412532011</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.454412532011</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1461.498314754119</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>1034.597584767419</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>1034.597584767419</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>608.6206449152768</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
-        <v>511.7201834300797</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G41" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>72.48424976299951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>72.48424976299951</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>717.7104885199337</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M41" t="n">
-        <v>717.7104885199337</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>1614.703079337053</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>2459.847729487865</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>3168.127008645793</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.212488149976</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3519.845194023116</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3298.919623067749</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3040.564713664162</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2683.075298790412</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2286.683949090759</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2286.683949090759</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1881.346679045649</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48424976299951</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>72.48424976299951</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>72.48424976299951</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L42" t="n">
-        <v>520.0338126636111</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M42" t="n">
-        <v>1417.02640348073</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N42" t="n">
-        <v>1417.02640348073</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O42" t="n">
-        <v>1417.02640348073</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P42" t="n">
-        <v>1417.02640348073</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.1148556013687</v>
+        <v>3666.855944130192</v>
       </c>
       <c r="C43" t="n">
-        <v>388.1422924802847</v>
+        <v>3494.883381009108</v>
       </c>
       <c r="D43" t="n">
-        <v>388.1422924802847</v>
+        <v>3331.566608135879</v>
       </c>
       <c r="E43" t="n">
-        <v>388.1422924802847</v>
+        <v>3331.566608135879</v>
       </c>
       <c r="F43" t="n">
-        <v>216.2805182548451</v>
+        <v>3159.704833910439</v>
       </c>
       <c r="G43" t="n">
-        <v>216.2805182548451</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48424976299951</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299951</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.858663863301</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S43" t="n">
-        <v>2035.723616382436</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T43" t="n">
-        <v>1792.384268608336</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U43" t="n">
-        <v>1512.19982010864</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V43" t="n">
-        <v>1494.039893005374</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="W43" t="n">
-        <v>1219.187489177887</v>
+        <v>4099.585809396453</v>
       </c>
       <c r="X43" t="n">
-        <v>976.6235926236923</v>
+        <v>3857.021912842258</v>
       </c>
       <c r="Y43" t="n">
-        <v>750.2808243134343</v>
+        <v>3857.021912842258</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2083.982304433787</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>809.5885619560448</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>2047.588607372513</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M44" t="n">
-        <v>2342.291394605962</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N44" t="n">
-        <v>2342.291394605962</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O44" t="n">
-        <v>2342.291394605962</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P44" t="n">
-        <v>3050.57067376389</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268073</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023116</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3507.937977243031</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3249.583067839443</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2892.093652965693</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2495.70230326604</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2083.982304433787</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2083.982304433787</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>125.8603430006899</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299951</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>72.48424976299951</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J45" t="n">
-        <v>344.1817390425906</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K45" t="n">
-        <v>344.1817390425906</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L45" t="n">
-        <v>520.0338126636111</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M45" t="n">
-        <v>1417.02640348073</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="N45" t="n">
-        <v>1417.02640348073</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="O45" t="n">
-        <v>1417.02640348073</v>
+        <v>4195.92931772239</v>
       </c>
       <c r="P45" t="n">
-        <v>1417.02640348073</v>
+        <v>4650.990193428648</v>
       </c>
       <c r="Q45" t="n">
-        <v>1881.171880343509</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>905.4978445171571</v>
+        <v>3341.604252503098</v>
       </c>
       <c r="C46" t="n">
-        <v>733.5252813960731</v>
+        <v>3341.604252503098</v>
       </c>
       <c r="D46" t="n">
-        <v>570.2085085228438</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="E46" t="n">
-        <v>410.6029936942069</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="F46" t="n">
-        <v>238.7412194687674</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="G46" t="n">
-        <v>72.48424976299951</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H46" t="n">
-        <v>72.48424976299951</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299951</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S46" t="n">
-        <v>2082.762229695263</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T46" t="n">
-        <v>1839.422881921163</v>
+        <v>4837.42520579877</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.422881921163</v>
+        <v>4557.240757299074</v>
       </c>
       <c r="V46" t="n">
-        <v>1839.422881921163</v>
+        <v>4275.529289907103</v>
       </c>
       <c r="W46" t="n">
-        <v>1564.570478093676</v>
+        <v>4000.676886079616</v>
       </c>
       <c r="X46" t="n">
-        <v>1322.006581539481</v>
+        <v>3758.112989525421</v>
       </c>
       <c r="Y46" t="n">
-        <v>1095.663813229223</v>
+        <v>3531.770221215163</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>519.541291948777</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>39.73581606682197</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>521.1676505099917</v>
       </c>
       <c r="P2" t="n">
-        <v>480.3328471358044</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>465.2725720398027</v>
+        <v>506.2917778681972</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>506.8734716662956</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>506.9485808761899</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>33.56260952839261</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>232.5722561371962</v>
+        <v>20.97529217030766</v>
       </c>
       <c r="L4" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8216,22 +8218,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>457.4595408934817</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>107.8670228313365</v>
+        <v>177.6973456537768</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8371,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>225.9068206338004</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8389,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>315.915358154857</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>353.4336722031772</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>190.8306636765793</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>98.17301358442491</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8614,13 +8616,13 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>384.8453003067499</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
@@ -8690,19 +8692,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>943.33274487194</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>151.7530850043366</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8711,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,28 +8771,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>861.1530731170631</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>927.3961502510356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>185.6255543726317</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>571.3119453366951</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.33274487194</v>
+        <v>967.5075822902267</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8948,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>586.7111647538397</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>927.3961502510356</v>
+        <v>279.6168721116282</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>360.2906876703342</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>765.1769988726438</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9252,13 +9254,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>105.0107851302144</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9404,7 +9406,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9486,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>742.2139937908412</v>
+        <v>1043.774157741933</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9653,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9714,7 +9716,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>208.3123223574469</v>
       </c>
       <c r="N24" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>921.6378271075471</v>
@@ -9735,7 +9737,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.2202743644436</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,19 +9953,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>742.2139937908412</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9972,7 +9974,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>126.0397288826768</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>221.0580860608543</v>
+        <v>296.4732919192194</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10197,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>464.8736204150517</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10422,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10437,7 +10439,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>374.0706084536725</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10449,7 +10451,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,16 +10588,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>924.1790155406098</v>
+        <v>632.4842746885297</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10662,28 +10664,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>299.9167405677024</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>143.5544680578214</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10835,10 +10837,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>859.128966425699</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10911,16 +10913,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>742.2891030007354</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>690.0557179446777</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N41" t="n">
-        <v>943.33274487194</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11081,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L42" t="n">
-        <v>474.5853522704029</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>929.1499025498219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11154,13 +11156,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,19 +11302,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701168</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M44" t="n">
-        <v>335.1108459635218</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11373,25 +11375,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>200.1434439071796</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>929.1499025498219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>481.4282914131703</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>64.57007065508725</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>118.5577190788908</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>79.31046371040659</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.50784865894326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>179.4924275998966</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>107.3022489032179</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898699</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>112.8510053776928</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>118.557719078891</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>13.55037112485869</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>4.658947683704582</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>230.4477477879888</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="C28" t="n">
-        <v>167.5833014406535</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>13.11849902239277</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C34" t="n">
-        <v>147.0904654600845</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>41.47873147163443</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>92.67205288573129</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>79.34073237338153</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>140.9093584752787</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>324.9414831221487</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>40.63291346401758</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>260.916024885818</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.928170633529</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>6.536664108324516</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>180.9745186343829</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>577749.5878624738</v>
+        <v>579355.9607788489</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>577749.5878624738</v>
+        <v>584557.0438670954</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>577749.5878624738</v>
+        <v>584557.0438670954</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481854.5735030604</v>
+        <v>606040.156609591</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481854.5735030602</v>
+        <v>606040.1566095911</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>606040.1566095911</v>
+        <v>606040.156609591</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>606040.156609591</v>
+        <v>606040.1566095909</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>606040.1566095909</v>
+        <v>606040.156609591</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>606040.1566095909</v>
+        <v>606040.156609591</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>606040.1566095909</v>
+        <v>606040.156609591</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481854.5735030603</v>
+        <v>606040.156609591</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481854.5735030603</v>
+        <v>606040.1566095911</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495076.2678094888</v>
+        <v>495076.2678094886</v>
       </c>
       <c r="C2" t="n">
         <v>495076.2678094888</v>
       </c>
       <c r="D2" t="n">
-        <v>495076.2678094889</v>
+        <v>495076.2678094888</v>
       </c>
       <c r="E2" t="n">
-        <v>379856.0808657496</v>
+        <v>477725.8426668305</v>
       </c>
       <c r="F2" t="n">
-        <v>379856.0808657498</v>
+        <v>477725.8426668302</v>
       </c>
       <c r="G2" t="n">
+        <v>477725.8426668304</v>
+      </c>
+      <c r="H2" t="n">
+        <v>477725.8426668302</v>
+      </c>
+      <c r="I2" t="n">
+        <v>477725.8426668302</v>
+      </c>
+      <c r="J2" t="n">
         <v>477725.8426668305</v>
       </c>
-      <c r="H2" t="n">
-        <v>477725.8426668306</v>
-      </c>
-      <c r="I2" t="n">
-        <v>477725.8426668304</v>
-      </c>
-      <c r="J2" t="n">
-        <v>477725.8426668304</v>
-      </c>
       <c r="K2" t="n">
-        <v>477725.8426668306</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="L2" t="n">
-        <v>477725.8426668302</v>
+        <v>477725.8426668305</v>
       </c>
       <c r="M2" t="n">
-        <v>477725.8426668304</v>
+        <v>477725.8426668305</v>
       </c>
       <c r="N2" t="n">
-        <v>477725.8426668306</v>
+        <v>477725.8426668305</v>
       </c>
       <c r="O2" t="n">
-        <v>379856.0808657498</v>
+        <v>477725.8426668305</v>
       </c>
       <c r="P2" t="n">
-        <v>379856.0808657497</v>
+        <v>477725.8426668303</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695911</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361233</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096018</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943099</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701988</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091333</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214761.4484639727</v>
+        <v>211246.6236465253</v>
       </c>
       <c r="C4" t="n">
-        <v>214761.4484639727</v>
+        <v>199866.3919893415</v>
       </c>
       <c r="D4" t="n">
-        <v>214761.4484639727</v>
+        <v>199866.3919893415</v>
       </c>
       <c r="E4" t="n">
-        <v>80277.85946797878</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="F4" t="n">
-        <v>80277.85946797879</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="G4" t="n">
+        <v>101012.8540458319</v>
+      </c>
+      <c r="H4" t="n">
         <v>101012.8540458318</v>
-      </c>
-      <c r="H4" t="n">
-        <v>101012.8540458319</v>
       </c>
       <c r="I4" t="n">
         <v>101012.8540458319</v>
       </c>
       <c r="J4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="K4" t="n">
         <v>101012.8540458319</v>
@@ -26448,16 +26450,16 @@
         <v>101012.8540458319</v>
       </c>
       <c r="M4" t="n">
+        <v>101012.8540458318</v>
+      </c>
+      <c r="N4" t="n">
         <v>101012.8540458319</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>101012.8540458318</v>
       </c>
-      <c r="O4" t="n">
-        <v>80277.85946797876</v>
-      </c>
       <c r="P4" t="n">
-        <v>80277.85946797876</v>
+        <v>101012.8540458319</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216123</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64008.38445716727</v>
+        <v>58663.72527121102</v>
       </c>
       <c r="C6" t="n">
-        <v>218634.1050752878</v>
+        <v>204356.7911091068</v>
       </c>
       <c r="D6" t="n">
-        <v>218634.1050752878</v>
+        <v>227763.6247827192</v>
       </c>
       <c r="E6" t="n">
-        <v>111726.5235682894</v>
+        <v>83223.56987592834</v>
       </c>
       <c r="F6" t="n">
-        <v>244490.1915778914</v>
+        <v>298962.9264325687</v>
       </c>
       <c r="G6" t="n">
-        <v>196803.006338259</v>
+        <v>298962.9264325689</v>
       </c>
       <c r="H6" t="n">
+        <v>298962.9264325687</v>
+      </c>
+      <c r="I6" t="n">
+        <v>298962.9264325687</v>
+      </c>
+      <c r="J6" t="n">
+        <v>172385.6578522802</v>
+      </c>
+      <c r="K6" t="n">
+        <v>280316.3260755489</v>
+      </c>
+      <c r="L6" t="n">
+        <v>298962.9264325689</v>
+      </c>
+      <c r="M6" t="n">
+        <v>118899.0549774014</v>
+      </c>
+      <c r="N6" t="n">
+        <v>298962.9264325689</v>
+      </c>
+      <c r="O6" t="n">
         <v>298962.926432569</v>
       </c>
-      <c r="I6" t="n">
-        <v>298962.9264325689</v>
-      </c>
-      <c r="J6" t="n">
-        <v>178240.409489812</v>
-      </c>
-      <c r="K6" t="n">
-        <v>298962.9264325691</v>
-      </c>
-      <c r="L6" t="n">
-        <v>298962.9264325686</v>
-      </c>
-      <c r="M6" t="n">
-        <v>188153.5663234356</v>
-      </c>
-      <c r="N6" t="n">
-        <v>298962.926432569</v>
-      </c>
-      <c r="O6" t="n">
-        <v>244490.1915778914</v>
-      </c>
       <c r="P6" t="n">
-        <v>244490.1915778914</v>
+        <v>298962.9264325688</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353628</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353628</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,13 +27390,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>270.6408587400513</v>
+        <v>355.8264470017547</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>79.12539512386586</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>2.284315397371934</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>82.23069669041814</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27625,10 +27627,10 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>174.2843823982936</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>6.473637998965785</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27831,10 +27833,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>232.7324384170693</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>25.76191611436668</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>206.2762395340006</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>33.31833209038618</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>59.29601254814088</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28570,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.779647469158316e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28722,7 +28724,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>3.205021433435225e-12</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.304553167390154</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="P2" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>442.7574853255732</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10.81557123941412</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>211.6076016844843</v>
+        <v>0.01063771759566716</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34936,22 +34938,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>419.1474984608587</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>85.46778899800312</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>204.9421661810884</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35109,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>293.5345574968705</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>324.0137127175907</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>168.3155769623498</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35334,13 +35336,13 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>364.0963993311495</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
@@ -35410,19 +35412,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374939</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>114.3621256483125</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35431,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>838.0562926047351</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>906.0531220374939</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>532.9999029040722</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374939</v>
+        <v>930.2279594557806</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35668,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>563.6143842415117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>906.0531220374939</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.5260868755249</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>727.745735973212</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35972,13 +35974,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>83.23994392538575</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,7 +36126,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>719.1172132785132</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36373,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>185.2155418451189</v>
       </c>
       <c r="N24" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>898.4659373853249</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>86.80031487885702</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36673,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>719.1172132785132</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>191.6381265752677</v>
+        <v>267.0533324336329</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>428.7489458104537</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>352.7275802401309</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,16 +37308,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>886.8993927061638</v>
+        <v>595.2046518540836</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>122.2114398442797</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>82.84778796434657</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37555,10 +37557,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>821.7380070696748</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37631,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>719.1172132785132</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>651.7436755120548</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37801,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L42" t="n">
-        <v>452.0702655561734</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>906.0531220374939</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,19 +38022,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374939</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M44" t="n">
-        <v>297.67958306409</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>177.62835719295</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>906.0531220374939</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>459.6574502083416</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1848915.628841034</v>
+        <v>1848218.967635943</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114756</v>
+        <v>612367.9462114753</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>65.0464929907391</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>219.3417665354376</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.28391178232665</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>121.8118836426254</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>333.4191839581966</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -907,16 +907,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>109.8059515952207</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -958,13 +958,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1056,16 +1056,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1104,16 +1104,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.7573427009628357</v>
       </c>
       <c r="V7" t="n">
-        <v>46.1619143009821</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1135,13 +1135,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>267.3402079748079</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>49.49512077555119</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1296,13 +1296,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>110.8471439350443</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1341,16 +1341,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396354</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1584,19 +1584,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>264.8780527339515</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>160.8277938782463</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396431</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>60.64582998875628</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1903,7 +1903,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -2004,13 +2004,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>51.69511841098215</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.70658994605395</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>165.5938898061686</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>146.0964524577874</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.30362264056416</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716577</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.16614128474215</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3274,19 +3274,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396357</v>
+        <v>34.54790254396434</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>146.7855775533106</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3514,7 +3514,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
@@ -3559,7 +3559,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3663,22 +3663,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.44894733164843</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3720,7 +3720,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3903,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>123.9614865446926</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,7 +3957,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3985,7 +3985,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -4137,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>96.4442051068671</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>59.93143566197608</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.7534004685684</v>
+        <v>967.1113293026273</v>
       </c>
       <c r="C2" t="n">
-        <v>145.8930745222726</v>
+        <v>944.2510033563315</v>
       </c>
       <c r="D2" t="n">
-        <v>126.640857747677</v>
+        <v>520.9583825413317</v>
       </c>
       <c r="E2" t="n">
-        <v>104.7043219359386</v>
+        <v>499.0218467295934</v>
       </c>
       <c r="F2" t="n">
-        <v>39.00079366246472</v>
+        <v>477.9380689593977</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231741</v>
+        <v>73.59900654884629</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231741</v>
+        <v>73.59900654884629</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="J2" t="n">
-        <v>401.3055941092129</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516409</v>
+        <v>517.6410595347464</v>
       </c>
       <c r="L2" t="n">
-        <v>880.2445183516409</v>
+        <v>517.6410595347464</v>
       </c>
       <c r="M2" t="n">
-        <v>882.5260259873571</v>
+        <v>517.6410595347464</v>
       </c>
       <c r="N2" t="n">
-        <v>882.5260259873571</v>
+        <v>882.5260259873601</v>
       </c>
       <c r="O2" t="n">
-        <v>1361.464950229785</v>
+        <v>882.5260259873601</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229785</v>
+        <v>1361.464950229789</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733968</v>
+        <v>1817.550429733972</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489011</v>
+        <v>1830.739470489015</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533644</v>
+        <v>1609.813899533648</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130056</v>
+        <v>1609.813899533648</v>
       </c>
       <c r="V2" t="n">
-        <v>993.9695752563059</v>
+        <v>1609.813899533648</v>
       </c>
       <c r="W2" t="n">
-        <v>597.5782255566528</v>
+        <v>1609.813899533648</v>
       </c>
       <c r="X2" t="n">
-        <v>185.8582267244</v>
+        <v>1388.256559598863</v>
       </c>
       <c r="Y2" t="n">
-        <v>184.5613607196944</v>
+        <v>1386.959693594157</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237727</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412774</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565624</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294996</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124038</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000783</v>
+        <v>92.07822853000791</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422926</v>
+        <v>46.14877825422933</v>
       </c>
       <c r="J3" t="n">
-        <v>317.8462675338203</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>317.8462675338203</v>
+        <v>796.7851917762493</v>
       </c>
       <c r="L3" t="n">
-        <v>796.7851917762482</v>
+        <v>1275.724116018678</v>
       </c>
       <c r="M3" t="n">
-        <v>1275.724116018676</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="N3" t="n">
-        <v>1275.724116018676</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="O3" t="n">
-        <v>1754.663040261104</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="P3" t="n">
-        <v>1754.663040261104</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
         <v>1765.370455788124</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.445524390543</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438354</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>955.6750519694078</v>
+        <v>786.593921822241</v>
       </c>
       <c r="C4" t="n">
-        <v>783.7024888483238</v>
+        <v>786.593921822241</v>
       </c>
       <c r="D4" t="n">
-        <v>620.3857159750945</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
         <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>448.5239417496549</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
         <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520414</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="K4" t="n">
-        <v>38.71266663273713</v>
+        <v>265.2297364981547</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271579</v>
+        <v>619.9190577925755</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974087</v>
+        <v>1011.104852762826</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773445</v>
+        <v>1388.596363638862</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453208</v>
+        <v>1744.024492318625</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="R4" t="n">
-        <v>1890.375540593318</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="S4" t="n">
-        <v>1890.375540593318</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="T4" t="n">
-        <v>1647.036192819219</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="U4" t="n">
-        <v>1647.036192819219</v>
+        <v>1812.064457906152</v>
       </c>
       <c r="V4" t="n">
-        <v>1647.036192819219</v>
+        <v>1530.352990514181</v>
       </c>
       <c r="W4" t="n">
-        <v>1372.183788991731</v>
+        <v>1255.500586686694</v>
       </c>
       <c r="X4" t="n">
-        <v>1372.183788991731</v>
+        <v>1012.936690132499</v>
       </c>
       <c r="Y4" t="n">
-        <v>1145.841020681474</v>
+        <v>786.593921822241</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>938.0105478030285</v>
+        <v>679.483459270441</v>
       </c>
       <c r="C5" t="n">
-        <v>915.1502218567327</v>
+        <v>656.6231333241452</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>233.3305125091455</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>211.3939766974071</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>190.3101989272114</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,22 +4570,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596036</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4597,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>1283.774063102812</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W5" t="n">
-        <v>1283.774063102812</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X5" t="n">
-        <v>1276.094468310963</v>
+        <v>1100.628689566677</v>
       </c>
       <c r="Y5" t="n">
-        <v>1274.797602306257</v>
+        <v>695.291419521567</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>205.6899987133984</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>756.3555336978366</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="N6" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O6" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>783.8450102269608</v>
+        <v>961.4711417263379</v>
       </c>
       <c r="C7" t="n">
-        <v>783.8450102269608</v>
+        <v>789.4985786052539</v>
       </c>
       <c r="D7" t="n">
-        <v>620.5282373537315</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E7" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
         <v>454.3200315065851</v>
@@ -4725,22 +4725,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
         <v>2097.911122221615</v>
@@ -4752,25 +4752,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.107646522315</v>
       </c>
       <c r="V7" t="n">
-        <v>1717.770047630966</v>
+        <v>1895.396179130343</v>
       </c>
       <c r="W7" t="n">
-        <v>1442.917643803479</v>
+        <v>1620.543775302856</v>
       </c>
       <c r="X7" t="n">
-        <v>1200.353747249284</v>
+        <v>1377.979878748662</v>
       </c>
       <c r="Y7" t="n">
-        <v>974.0109789390265</v>
+        <v>1151.637110438404</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1342.050951843433</v>
+        <v>412.0068991484209</v>
       </c>
       <c r="C8" t="n">
-        <v>915.1502218567327</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,49 +4807,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
         <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1508.432753835019</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2174.916180971921</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>2174.916180971921</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W8" t="n">
-        <v>2174.916180971921</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X8" t="n">
-        <v>1763.196182139668</v>
+        <v>833.1521294446566</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094558</v>
+        <v>427.8148593995469</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="M9" t="n">
-        <v>1145.829295018124</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N9" t="n">
-        <v>1696.494830002562</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O9" t="n">
-        <v>1696.494830002562</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P9" t="n">
-        <v>1696.494830002562</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>738.2594066832694</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>566.2868435621854</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>566.2868435621854</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>566.2868435621854</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1727.553143168988</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1445.841675777017</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1170.98927194953</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>928.425375395335</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>928.425375395335</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
         <v>1690.508147261616</v>
@@ -5029,13 +5029,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988736</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
@@ -5053,16 +5053,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
@@ -5077,16 +5077,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>692.7876399741681</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L12" t="n">
-        <v>692.7876399741681</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M12" t="n">
-        <v>1748.774177950213</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.774177950213</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="O12" t="n">
-        <v>1748.774177950213</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>878.3707945649905</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C13" t="n">
-        <v>706.3982314439065</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D13" t="n">
-        <v>706.3982314439065</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E13" t="n">
-        <v>540.1900255967601</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F13" t="n">
-        <v>368.3282513713204</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1601.687756943839</v>
       </c>
       <c r="V13" t="n">
-        <v>1542.018283751469</v>
+        <v>1319.976289551867</v>
       </c>
       <c r="W13" t="n">
-        <v>1267.165879923982</v>
+        <v>1045.12388572438</v>
       </c>
       <c r="X13" t="n">
-        <v>1104.713562875248</v>
+        <v>802.5599891701856</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3707945649905</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5284,22 +5284,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N14" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5314,16 +5314,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>939.1015214887346</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M15" t="n">
-        <v>939.1015214887346</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N15" t="n">
-        <v>1194.79262694784</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O15" t="n">
-        <v>1194.79262694784</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P15" t="n">
         <v>1910.990343986338</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.8532300916962</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>697.8532300916962</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>534.5364572184669</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>368.3282513713204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>924.1959984019542</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>697.8532300916962</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,37 +5503,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
         <v>274.1644876312681</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5758,31 +5758,31 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3444.155406100785</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
         <v>1828.971033901635</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>374.0002026854196</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M24" t="n">
-        <v>557.3635891120873</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
-        <v>557.3635891120873</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>742.8905159778161</v>
+        <v>1067.07923602298</v>
       </c>
       <c r="C25" t="n">
-        <v>575.6239606180499</v>
+        <v>895.1066729018962</v>
       </c>
       <c r="D25" t="n">
-        <v>412.3071877448206</v>
+        <v>731.7899000286669</v>
       </c>
       <c r="E25" t="n">
-        <v>246.0989818976742</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F25" t="n">
-        <v>246.0989818976742</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G25" t="n">
         <v>246.0989818976742</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.8905159778161</v>
+        <v>1257.245204735046</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.213862444163</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N26" t="n">
-        <v>3012.464920930865</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O26" t="n">
-        <v>3857.609571081677</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P26" t="n">
-        <v>4565.888850239604</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6314,19 +6314,19 @@
         <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>1808.730580298577</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N27" t="n">
-        <v>1808.730580298577</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.730580298577</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P27" t="n">
-        <v>1808.730580298577</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>440.483482374059</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>366.6855125151251</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>1082.193820490624</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6542,25 +6542,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N30" t="n">
-        <v>1112.773316863137</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O30" t="n">
-        <v>1112.773316863137</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
         <v>1828.971033901635</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
         <v>1364.825557038856</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6922,16 +6922,16 @@
         <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988742</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6940,13 +6940,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2398.817321261059</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N35" t="n">
         <v>2988.069926596602</v>
@@ -7013,25 +7013,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
         <v>1364.825557038856</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>368.279487512699</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C37" t="n">
-        <v>368.279487512699</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D37" t="n">
-        <v>368.279487512699</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7122,25 +7122,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
         <v>839.4070255988738</v>
@@ -7174,22 +7174,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>991.7839914173002</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1707.981708455798</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>608.0932463474637</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>608.0932463474637</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D40" t="n">
-        <v>608.0932463474637</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E40" t="n">
-        <v>441.8850405003172</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F40" t="n">
-        <v>270.0232662748776</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>103.7662965691098</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1542.018283751469</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1267.165879923982</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>1024.601983369787</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>798.2592150595294</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
@@ -7417,7 +7417,7 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1180.414480198223</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M41" t="n">
         <v>2011.818868109901</v>
@@ -7447,16 +7447,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>648.6278400003578</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L42" t="n">
-        <v>648.6278400003578</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M42" t="n">
-        <v>648.6278400003578</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N42" t="n">
-        <v>648.6278400003578</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O42" t="n">
-        <v>648.6278400003578</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P42" t="n">
-        <v>1364.825557038856</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3666.855944130192</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>3494.883381009108</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>3331.566608135879</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>3331.566608135879</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>3159.704833910439</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>4374.43821322394</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>4099.585809396453</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>3857.021912842258</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>3857.021912842258</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
@@ -7654,16 +7654,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2720.098147267829</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N44" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
         <v>4541.493855905342</v>
@@ -7684,16 +7684,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K45" t="n">
-        <v>3306.448039710919</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L45" t="n">
-        <v>3306.448039710919</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M45" t="n">
-        <v>3306.448039710919</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N45" t="n">
-        <v>3306.448039710919</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O45" t="n">
-        <v>4195.92931772239</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P45" t="n">
-        <v>4650.990193428648</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3341.604252503098</v>
+        <v>543.5554397491876</v>
       </c>
       <c r="C46" t="n">
-        <v>3341.604252503098</v>
+        <v>371.5828766281036</v>
       </c>
       <c r="D46" t="n">
-        <v>3178.287479629868</v>
+        <v>371.5828766281036</v>
       </c>
       <c r="E46" t="n">
-        <v>3178.287479629868</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R46" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S46" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="T46" t="n">
-        <v>4837.42520579877</v>
+        <v>2039.37639304486</v>
       </c>
       <c r="U46" t="n">
-        <v>4557.240757299074</v>
+        <v>1759.191944545164</v>
       </c>
       <c r="V46" t="n">
-        <v>4275.529289907103</v>
+        <v>1477.480477153193</v>
       </c>
       <c r="W46" t="n">
-        <v>4000.676886079616</v>
+        <v>1202.628073325706</v>
       </c>
       <c r="X46" t="n">
-        <v>3758.112989525421</v>
+        <v>960.0641767715111</v>
       </c>
       <c r="Y46" t="n">
-        <v>3531.770221215163</v>
+        <v>733.7214084612532</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>519.541291948777</v>
+        <v>519.5412919487781</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>39.73581606682197</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>405.8502960189042</v>
       </c>
       <c r="O2" t="n">
-        <v>521.1676505099917</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529642</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8060,25 +8060,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.175924987302</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681972</v>
+        <v>506.2917778681982</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662956</v>
+        <v>48.85522789279919</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761899</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.56260952839261</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8139,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.97529217030766</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8154,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>215.3931969178345</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8294,19 +8294,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>177.6973456537768</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>372.7867989824566</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8315,7 +8315,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8391,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.915358154857</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8455,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P8" t="n">
-        <v>300.5986134498011</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,28 +8534,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>268.1828480767085</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>98.17301358442491</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>185.6255543726317</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>425.7614759053121</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>967.5075822902267</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>867.7664080100944</v>
@@ -9017,13 +9017,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>279.6168721116282</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,10 +9172,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>765.1769988726438</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9184,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,13 +9406,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>489.184786214375</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9424,7 +9424,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1043.774157741933</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9497,10 +9497,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9658,7 +9658,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,25 +9713,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M24" t="n">
-        <v>208.3123223574469</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9740,7 +9740,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9895,10 +9895,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>472.1756697257304</v>
+        <v>440.9328573103608</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
@@ -9974,10 +9974,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>126.0397288826768</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>296.4732919192194</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,13 +10120,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>882.1738474735962</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
@@ -10135,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10202,16 +10202,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10369,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10439,13 +10439,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
@@ -10588,16 +10588,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N35" t="n">
-        <v>632.4842746885297</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>299.9167405677024</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10682,7 +10682,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>859.128966425699</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10916,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.806266097605</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,10 +11065,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M41" t="n">
-        <v>877.2336749314295</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>292.2790261091175</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11159,10 +11159,10 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,19 +11302,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11375,10 +11375,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11390,13 +11390,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>481.4282914131703</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>12.50455128074725</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>79.31046371040659</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>179.4924275998966</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>112.8510053776928</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.557719078891</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>4.658947683704582</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>18.44967133088753</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>112.9606863843808</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>112.9606863843808</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.47873147163443</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>111.8076272173316</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25332,7 +25332,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>140.9093584752787</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>40.63291346401758</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868180787</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>180.9745186343829</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>579355.9607788489</v>
+        <v>579355.960778849</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>606040.156609591</v>
+        <v>606040.1566095909</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>606040.1566095911</v>
+        <v>606040.156609591</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>606040.1566095909</v>
+        <v>606040.156609591</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>606040.1566095911</v>
+        <v>606040.156609591</v>
       </c>
     </row>
     <row r="14">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495076.2678094886</v>
+        <v>495076.2678094885</v>
       </c>
       <c r="C2" t="n">
         <v>495076.2678094888</v>
@@ -26325,34 +26325,34 @@
         <v>477725.8426668305</v>
       </c>
       <c r="F2" t="n">
-        <v>477725.8426668302</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="G2" t="n">
         <v>477725.8426668304</v>
       </c>
       <c r="H2" t="n">
+        <v>477725.8426668304</v>
+      </c>
+      <c r="I2" t="n">
+        <v>477725.8426668304</v>
+      </c>
+      <c r="J2" t="n">
         <v>477725.8426668302</v>
-      </c>
-      <c r="I2" t="n">
-        <v>477725.8426668302</v>
-      </c>
-      <c r="J2" t="n">
-        <v>477725.8426668305</v>
       </c>
       <c r="K2" t="n">
         <v>477725.8426668303</v>
       </c>
       <c r="L2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668302</v>
       </c>
       <c r="M2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668304</v>
       </c>
       <c r="N2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="O2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668302</v>
       </c>
       <c r="P2" t="n">
         <v>477725.8426668303</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695911</v>
+        <v>162124.6960695914</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361233</v>
+        <v>23406.833673612</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802887</v>
+        <v>126577.2685802889</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701988</v>
+        <v>18646.60035701962</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551676</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211246.6236465253</v>
+        <v>211246.6236465251</v>
       </c>
       <c r="C4" t="n">
         <v>199866.3919893415</v>
@@ -26426,22 +26426,22 @@
         <v>199866.3919893415</v>
       </c>
       <c r="E4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="F4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="G4" t="n">
         <v>101012.8540458319</v>
       </c>
       <c r="H4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="I4" t="n">
         <v>101012.8540458319</v>
       </c>
       <c r="J4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="K4" t="n">
         <v>101012.8540458319</v>
@@ -26453,10 +26453,10 @@
         <v>101012.8540458318</v>
       </c>
       <c r="N4" t="n">
+        <v>101012.8540458318</v>
+      </c>
+      <c r="O4" t="n">
         <v>101012.8540458319</v>
-      </c>
-      <c r="O4" t="n">
-        <v>101012.8540458318</v>
       </c>
       <c r="P4" t="n">
         <v>101012.8540458319</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216123</v>
+        <v>63041.22282216129</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58663.72527121102</v>
+        <v>58663.72527121064</v>
       </c>
       <c r="C6" t="n">
-        <v>204356.7911091068</v>
+        <v>204356.7911091071</v>
       </c>
       <c r="D6" t="n">
         <v>227763.6247827192</v>
       </c>
       <c r="E6" t="n">
-        <v>83223.56987592834</v>
+        <v>83172.53921374418</v>
       </c>
       <c r="F6" t="n">
-        <v>298962.9264325687</v>
+        <v>298911.8957703845</v>
       </c>
       <c r="G6" t="n">
-        <v>298962.9264325689</v>
+        <v>298911.8957703846</v>
       </c>
       <c r="H6" t="n">
-        <v>298962.9264325687</v>
+        <v>298911.8957703846</v>
       </c>
       <c r="I6" t="n">
-        <v>298962.9264325687</v>
+        <v>298911.8957703846</v>
       </c>
       <c r="J6" t="n">
-        <v>172385.6578522802</v>
+        <v>172334.6271900955</v>
       </c>
       <c r="K6" t="n">
-        <v>280316.3260755489</v>
+        <v>280265.2954133648</v>
       </c>
       <c r="L6" t="n">
-        <v>298962.9264325689</v>
+        <v>298911.8957703843</v>
       </c>
       <c r="M6" t="n">
-        <v>118899.0549774014</v>
+        <v>118848.0243152169</v>
       </c>
       <c r="N6" t="n">
-        <v>298962.9264325689</v>
+        <v>298911.8957703845</v>
       </c>
       <c r="O6" t="n">
-        <v>298962.926432569</v>
+        <v>298911.8957703843</v>
       </c>
       <c r="P6" t="n">
-        <v>298962.9264325688</v>
+        <v>298911.8957703845</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162648</v>
+        <v>72.45112196162546</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162648</v>
+        <v>72.45112196162546</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162648</v>
+        <v>72.45112196162546</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>355.8264470017547</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>188.2610323084926</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.284315397371934</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>155.5707203720733</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.23069669041814</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27627,16 +27627,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>290.4897201912252</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>276.6252613137359</v>
       </c>
       <c r="V7" t="n">
-        <v>232.7324384170693</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>155.291514712025</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>206.2762395340006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>59.29601254814088</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28092,25 +28092,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-8.360392837795219e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30705,7 +30705,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30890,7 +30890,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.304553167390154</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>368.5706731844582</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539676</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34780,25 +34780,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539676</v>
+        <v>25.75844738047121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539676</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.81557123941412</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01063771759566716</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34874,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>193.0123962598481</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>48.74406945557187</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35014,19 +35014,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>155.2981118204434</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35111,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968705</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35175,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P8" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
+        <v>245.6677613624789</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>75.42597529544641</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>163.8547131678031</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>403.0144376163336</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,13 +35652,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>930.2279594557806</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>845.2513212958648</v>
@@ -35737,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,10 +35892,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>727.745735973212</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35904,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,13 +36126,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>451.905163379929</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36144,7 +36144,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36378,7 +36378,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M24" t="n">
-        <v>185.2155418451189</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36615,10 +36615,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>436.0509951211323</v>
+        <v>404.8081827057627</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.2926905936983</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>267.0533324336329</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,13 +36840,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
@@ -36855,7 +36855,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>82.84778796434657</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37089,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
@@ -37308,16 +37308,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N35" t="n">
-        <v>595.2046518540836</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>821.7380070696748</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>205.0592278086265</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,10 +37785,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M41" t="n">
-        <v>839.8024120319977</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>269.8797922757842</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>459.6574502083416</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38186,7 +38186,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404434</v>
       </c>
       <c r="O46" t="n">
         <v>359.0183117977405</v>
